--- a/22310154【安倍春菜】.xlsx
+++ b/22310154【安倍春菜】.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun8\Desktop\アプリケーション開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun8\Desktop\システム開発Ⅰ\22310154-AmbaiHaruna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7145E-7E9E-4C6E-A193-E5F4DDCE37AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DCDFF-77EF-453B-A49E-29CD31EDC151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="570" firstSheet="8" activeTab="11" xr2:uid="{15054733-8610-4C65-AE25-48D381062B60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="570" firstSheet="9" activeTab="12" xr2:uid="{15054733-8610-4C65-AE25-48D381062B60}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="フォルダの編集(楽譜整理)" sheetId="9" r:id="rId10"/>
     <sheet name="楽譜の削除(楽譜整理)" sheetId="12" r:id="rId11"/>
     <sheet name="楽譜一覧" sheetId="14" r:id="rId12"/>
-    <sheet name="作業用" sheetId="7" r:id="rId13"/>
+    <sheet name="フォルダ一覧" sheetId="15" r:id="rId13"/>
+    <sheet name="作業用" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="286">
   <si>
     <t>企画背景（なんでそれを作ろうと思ったか）</t>
     <rPh sb="0" eb="2">
@@ -2862,12 +2863,136 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・「楽譜の参照」をクリックすると、保存してある楽譜を参照することができる</t>
+    <rPh sb="2" eb="4">
+      <t>ガクフ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクフ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・楽譜情報は編集不可</t>
+    <rPh sb="1" eb="5">
+      <t>ガクフジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヘンシュウフカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガクフ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガクフ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「戻る」をクリックすると、楽譜一覧画面へ遷移する</t>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>ガクフイチランガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・楽譜の参照を行うと、印刷も可能な仕様にしたいなぁ…</t>
+    <rPh sb="1" eb="3">
+      <t>ガクフ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・参照したいフォルダ名をクリックすると中身を参照可能</t>
+    <rPh sb="1" eb="3">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・曲名をクリックすると楽譜情報の参照が可能</t>
+    <rPh sb="1" eb="3">
+      <t>キョクメイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ガクフジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土井　康司</t>
+    <rPh sb="0" eb="2">
+      <t>ツチイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3119,6 +3244,15 @@
     </font>
     <font>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -3588,7 +3722,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3747,296 +3881,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4048,25 +3894,352 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4967,10 +5140,235 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B471634-B99B-74BA-89B7-15C57C8BA8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1386841" y="6217920"/>
+          <a:ext cx="1257299" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>645811</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>130098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C50DCB-3853-4D57-A7B8-041CB80F9AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="669073" y="10221951"/>
+          <a:ext cx="7615323" cy="3382537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373727</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED38CC4-1325-ABAF-D092-EA2A7DED50B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="4000847" cy="2225233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>721</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0219872-9AAD-E2C9-43EB-64AFE14FC05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="2971800"/>
+          <a:ext cx="8321761" cy="3558848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A36A2D-DBDC-4ABC-90F9-F2488F230726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1386841" y="6217920"/>
+          <a:ext cx="1257299" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5170,7 +5568,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>664883</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>82176</xdr:rowOff>
@@ -5234,13 +5632,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>448237</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>97118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>149412</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2988</xdr:rowOff>
@@ -5287,13 +5685,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>738096</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>22415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -5357,14 +5755,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>7471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
@@ -5410,13 +5808,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>758453</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>102536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>1049807</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>154831</xdr:rowOff>
@@ -5463,7 +5861,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>930275</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>119530</xdr:rowOff>
@@ -5653,10 +6051,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>292712</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
+      <xdr:rowOff>80002</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1596571" cy="435697"/>
     <xdr:sp macro="" textlink="">
@@ -5672,7 +6070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29140150" y="5094513"/>
+          <a:off x="37272664" y="4973327"/>
           <a:ext cx="1596571" cy="435697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5718,10 +6116,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>789214</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>135618</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>293455</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98895</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005212" cy="349776"/>
     <xdr:sp macro="" textlink="">
@@ -5737,7 +6135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28011664" y="5241018"/>
+          <a:off x="37273407" y="4524003"/>
           <a:ext cx="1005212" cy="349776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5791,11 +6189,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9179</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>158483</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="902811" cy="392800"/>
+    <xdr:ext cx="1569660" cy="349776"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
@@ -5809,8 +6207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26984325" y="5172075"/>
-          <a:ext cx="902811" cy="392800"/>
+          <a:off x="27083131" y="5281326"/>
+          <a:ext cx="1569660" cy="349776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5844,10 +6242,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>編集完了</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>フォルダ一覧に戻る</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5855,16 +6253,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>877907</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>227911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>36604</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>196661</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>192676</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>224203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5879,8 +6277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31270575" y="5086350"/>
-          <a:ext cx="455704" cy="453836"/>
+          <a:off x="39198244" y="7223622"/>
+          <a:ext cx="462360" cy="455328"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5917,7 +6315,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5925,16 +6326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>24788</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>203008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>358163</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5966,8 +6367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31289625" y="5133975"/>
-          <a:ext cx="333375" cy="333375"/>
+          <a:off x="39492716" y="6739683"/>
+          <a:ext cx="333375" cy="333949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5978,10 +6379,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>589631</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40511</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="326308" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -5997,7 +6398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31422975" y="5210175"/>
+          <a:off x="38239776" y="7724776"/>
           <a:ext cx="326308" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6039,13 +6440,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>627154</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>234761</xdr:rowOff>
@@ -6109,13 +6510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -6162,7 +6563,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>664883</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>82176</xdr:rowOff>
@@ -6218,71 +6619,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>戻　る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1596571" cy="435697"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57FFE16-63C1-412A-834B-043745EF6453}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="39481125" y="438150"/>
-          <a:ext cx="1596571" cy="435697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>削　除</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6670,96 +7006,96 @@
       <c r="A1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
     </row>
     <row r="5" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -6768,118 +7104,118 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
     </row>
     <row r="11" spans="1:26" ht="7.2" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:26" ht="19.8" x14ac:dyDescent="0.5">
@@ -6888,118 +7224,118 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
     </row>
     <row r="17" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:26" ht="19.8" x14ac:dyDescent="0.5">
@@ -7008,146 +7344,146 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="128" t="s">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="130"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="71"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="134" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="136"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="64"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="136"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="64"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="136"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="64"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
     </row>
     <row r="24" spans="1:26" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
@@ -7155,158 +7491,158 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="128" t="s">
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="129"/>
-      <c r="Y25" s="129"/>
-      <c r="Z25" s="130"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="71"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="136"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="64"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="136"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="64"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="136"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="64"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A29" s="137"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
     </row>
     <row r="30" spans="1:26" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
@@ -7314,352 +7650,352 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="128" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="128" t="s">
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="128" t="s">
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="129"/>
-      <c r="Y31" s="129"/>
-      <c r="Z31" s="129"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A32" s="138">
+      <c r="A32" s="72">
         <v>1</v>
       </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="140" t="s">
+      <c r="B32" s="73"/>
+      <c r="C32" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="134" t="s">
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="134" t="s">
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="136"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="64"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A33" s="138">
+      <c r="A33" s="72">
         <v>2</v>
       </c>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="134" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="134" t="s">
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="136"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="64"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A34" s="138">
+      <c r="A34" s="72">
         <v>3</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="134"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="135"/>
-      <c r="T34" s="135"/>
-      <c r="U34" s="135"/>
-      <c r="V34" s="135"/>
-      <c r="W34" s="135"/>
-      <c r="X34" s="135"/>
-      <c r="Y34" s="135"/>
-      <c r="Z34" s="136"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="64"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A35" s="138">
+      <c r="A35" s="72">
         <v>4</v>
       </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="134"/>
-      <c r="Q35" s="135"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="135"/>
-      <c r="T35" s="135"/>
-      <c r="U35" s="135"/>
-      <c r="V35" s="135"/>
-      <c r="W35" s="135"/>
-      <c r="X35" s="135"/>
-      <c r="Y35" s="135"/>
-      <c r="Z35" s="136"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="64"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A36" s="138">
+      <c r="A36" s="72">
         <v>5</v>
       </c>
-      <c r="B36" s="139"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="136"/>
-      <c r="P36" s="134"/>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="135"/>
-      <c r="T36" s="135"/>
-      <c r="U36" s="135"/>
-      <c r="V36" s="135"/>
-      <c r="W36" s="135"/>
-      <c r="X36" s="135"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="136"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="64"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A37" s="138">
+      <c r="A37" s="72">
         <v>6</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="135"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="135"/>
-      <c r="T37" s="135"/>
-      <c r="U37" s="135"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="136"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="64"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A38" s="138">
+      <c r="A38" s="72">
         <v>7</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="135"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
-      <c r="N38" s="135"/>
-      <c r="O38" s="136"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="135"/>
-      <c r="R38" s="135"/>
-      <c r="S38" s="135"/>
-      <c r="T38" s="135"/>
-      <c r="U38" s="135"/>
-      <c r="V38" s="135"/>
-      <c r="W38" s="135"/>
-      <c r="X38" s="135"/>
-      <c r="Y38" s="135"/>
-      <c r="Z38" s="136"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="64"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A39" s="138">
+      <c r="A39" s="72">
         <v>8</v>
       </c>
-      <c r="B39" s="139"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="135"/>
-      <c r="K39" s="135"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
-      <c r="N39" s="135"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="135"/>
-      <c r="R39" s="135"/>
-      <c r="S39" s="135"/>
-      <c r="T39" s="135"/>
-      <c r="U39" s="135"/>
-      <c r="V39" s="135"/>
-      <c r="W39" s="135"/>
-      <c r="X39" s="135"/>
-      <c r="Y39" s="135"/>
-      <c r="Z39" s="136"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="64"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A40" s="138">
+      <c r="A40" s="72">
         <v>9</v>
       </c>
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="134"/>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
-      <c r="T40" s="135"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="135"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="136"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="64"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A41" s="138">
+      <c r="A41" s="72">
         <v>10</v>
       </c>
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="134"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
-      <c r="V41" s="135"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="135"/>
-      <c r="Z41" s="136"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="64"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
@@ -7696,202 +8032,202 @@
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="58"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="58"/>
-      <c r="W44" s="58"/>
-      <c r="X44" s="58"/>
-      <c r="Y44" s="58"/>
-      <c r="Z44" s="59"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="79"/>
     </row>
     <row r="45" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="61"/>
-      <c r="U45" s="61"/>
-      <c r="V45" s="61"/>
-      <c r="W45" s="61"/>
-      <c r="X45" s="61"/>
-      <c r="Y45" s="61"/>
-      <c r="Z45" s="62"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="82"/>
     </row>
     <row r="46" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
-      <c r="Z46" s="62"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="82"/>
     </row>
     <row r="47" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="62"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="82"/>
     </row>
     <row r="48" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="61"/>
-      <c r="T48" s="61"/>
-      <c r="U48" s="61"/>
-      <c r="V48" s="61"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="61"/>
-      <c r="Y48" s="61"/>
-      <c r="Z48" s="62"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="82"/>
     </row>
     <row r="49" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="62"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="81"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="81"/>
+      <c r="X49" s="81"/>
+      <c r="Y49" s="81"/>
+      <c r="Z49" s="82"/>
     </row>
     <row r="50" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="65"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="84"/>
+      <c r="Y50" s="84"/>
+      <c r="Z50" s="85"/>
     </row>
     <row r="53" spans="1:26" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
@@ -7902,204 +8238,204 @@
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="57" t="s">
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="O54" s="143"/>
-      <c r="P54" s="143"/>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="143"/>
-      <c r="S54" s="143"/>
-      <c r="T54" s="143"/>
-      <c r="U54" s="143"/>
-      <c r="V54" s="143"/>
-      <c r="W54" s="143"/>
-      <c r="X54" s="143"/>
-      <c r="Y54" s="143"/>
-      <c r="Z54" s="144"/>
+      <c r="O54" s="86"/>
+      <c r="P54" s="86"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
+      <c r="W54" s="86"/>
+      <c r="X54" s="86"/>
+      <c r="Y54" s="86"/>
+      <c r="Z54" s="87"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="145"/>
-      <c r="O55" s="146"/>
-      <c r="P55" s="146"/>
-      <c r="Q55" s="146"/>
-      <c r="R55" s="146"/>
-      <c r="S55" s="146"/>
-      <c r="T55" s="146"/>
-      <c r="U55" s="146"/>
-      <c r="V55" s="146"/>
-      <c r="W55" s="146"/>
-      <c r="X55" s="146"/>
-      <c r="Y55" s="146"/>
-      <c r="Z55" s="147"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="90"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" s="60"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="145"/>
-      <c r="O56" s="146"/>
-      <c r="P56" s="146"/>
-      <c r="Q56" s="146"/>
-      <c r="R56" s="146"/>
-      <c r="S56" s="146"/>
-      <c r="T56" s="146"/>
-      <c r="U56" s="146"/>
-      <c r="V56" s="146"/>
-      <c r="W56" s="146"/>
-      <c r="X56" s="146"/>
-      <c r="Y56" s="146"/>
-      <c r="Z56" s="147"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="89"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="90"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="146"/>
-      <c r="P57" s="146"/>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="146"/>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="146"/>
-      <c r="W57" s="146"/>
-      <c r="X57" s="146"/>
-      <c r="Y57" s="146"/>
-      <c r="Z57" s="147"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="89"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
+      <c r="X57" s="89"/>
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="90"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A58" s="60"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="145"/>
-      <c r="O58" s="146"/>
-      <c r="P58" s="146"/>
-      <c r="Q58" s="146"/>
-      <c r="R58" s="146"/>
-      <c r="S58" s="146"/>
-      <c r="T58" s="146"/>
-      <c r="U58" s="146"/>
-      <c r="V58" s="146"/>
-      <c r="W58" s="146"/>
-      <c r="X58" s="146"/>
-      <c r="Y58" s="146"/>
-      <c r="Z58" s="147"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="89"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="90"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A59" s="60"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="145"/>
-      <c r="O59" s="146"/>
-      <c r="P59" s="146"/>
-      <c r="Q59" s="146"/>
-      <c r="R59" s="146"/>
-      <c r="S59" s="146"/>
-      <c r="T59" s="146"/>
-      <c r="U59" s="146"/>
-      <c r="V59" s="146"/>
-      <c r="W59" s="146"/>
-      <c r="X59" s="146"/>
-      <c r="Y59" s="146"/>
-      <c r="Z59" s="147"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="89"/>
+      <c r="S59" s="89"/>
+      <c r="T59" s="89"/>
+      <c r="U59" s="89"/>
+      <c r="V59" s="89"/>
+      <c r="W59" s="89"/>
+      <c r="X59" s="89"/>
+      <c r="Y59" s="89"/>
+      <c r="Z59" s="90"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A60" s="63"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="148"/>
-      <c r="O60" s="149"/>
-      <c r="P60" s="149"/>
-      <c r="Q60" s="149"/>
-      <c r="R60" s="149"/>
-      <c r="S60" s="149"/>
-      <c r="T60" s="149"/>
-      <c r="U60" s="149"/>
-      <c r="V60" s="149"/>
-      <c r="W60" s="149"/>
-      <c r="X60" s="149"/>
-      <c r="Y60" s="149"/>
-      <c r="Z60" s="150"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="92"/>
+      <c r="T60" s="92"/>
+      <c r="U60" s="92"/>
+      <c r="V60" s="92"/>
+      <c r="W60" s="92"/>
+      <c r="X60" s="92"/>
+      <c r="Y60" s="92"/>
+      <c r="Z60" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -8140,6 +8476,8 @@
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:O34"/>
     <mergeCell ref="P34:Z34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G31:O31"/>
@@ -8148,8 +8486,6 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="G32:O32"/>
     <mergeCell ref="P32:Z32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="G28:Z28"/>
     <mergeCell ref="A25:F25"/>
@@ -8179,7 +8515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1080712-2F5C-4839-B655-2583F8640B92}">
   <dimension ref="B1:AD85"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="91" workbookViewId="0">
       <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
@@ -8190,8 +8526,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="I2" t="s">
@@ -8209,11 +8545,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="33"/>
@@ -8244,12 +8580,12 @@
       <c r="C17" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="161"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="158"/>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
@@ -8277,10 +8613,10 @@
         <v>148</v>
       </c>
       <c r="E20" s="52"/>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="159" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="125"/>
+      <c r="G20" s="160"/>
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -8293,14 +8629,14 @@
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="114"/>
+      <c r="E22" s="142"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="M24" t="s">
@@ -8323,20 +8659,20 @@
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D42" s="157" t="s">
+      <c r="D42" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="158"/>
+      <c r="E42" s="153"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="74"/>
+      <c r="C55" s="102"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
@@ -8354,11 +8690,11 @@
       </c>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.45">
       <c r="I68" t="s">
@@ -8366,14 +8702,14 @@
       </c>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="D77" s="155" t="s">
+      <c r="D77" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="E77" s="156"/>
+      <c r="E77" s="155"/>
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
+      <c r="D78" s="155"/>
+      <c r="E78" s="155"/>
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.45">
       <c r="N79" t="s">
@@ -8436,7 +8772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6654B5-E067-453F-9D8F-D8E307952CBD}">
   <dimension ref="N2:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -8461,10 +8797,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294EB5F0-9612-4E45-B271-333D61DC836A}">
-  <dimension ref="B2:P42"/>
+  <dimension ref="B2:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D33"/>
+    <sheetView topLeftCell="A16" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8487,13 +8823,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="74" t="s">
+    <row r="25" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="C25" s="74"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C25" s="102"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="33"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -8505,8 +8841,11 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -8518,26 +8857,34 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="29"/>
-    </row>
-    <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="27"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
+      <c r="G28" s="161" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
       <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="27"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="37"/>
@@ -8547,25 +8894,27 @@
       <c r="K29" s="28"/>
       <c r="L29" s="29"/>
     </row>
-    <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="27"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="128"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
+      <c r="G30" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="163"/>
       <c r="L30" s="29"/>
     </row>
-    <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="27"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="128"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -8575,25 +8924,27 @@
       <c r="K31" s="28"/>
       <c r="L31" s="29"/>
     </row>
-    <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="27"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="89"/>
+      <c r="G32" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="163"/>
       <c r="L32" s="29"/>
     </row>
-    <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="27"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -8603,7 +8954,7 @@
       <c r="K33" s="28"/>
       <c r="L33" s="29"/>
     </row>
-    <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -8611,19 +8962,21 @@
       <c r="F34" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="89"/>
+      <c r="G34" s="161" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="29"/>
     </row>
-    <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="27"/>
-      <c r="C35" s="103" t="s">
+      <c r="C35" s="131" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="104"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
@@ -8633,22 +8986,24 @@
       <c r="K35" s="28"/>
       <c r="L35" s="29"/>
     </row>
-    <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="27"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="89"/>
+      <c r="G36" s="161" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="163"/>
       <c r="L36" s="29"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B37" s="27"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -8661,7 +9016,7 @@
       <c r="K37" s="28"/>
       <c r="L37" s="29"/>
     </row>
-    <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -8674,35 +9029,35 @@
       <c r="K38" s="28"/>
       <c r="L38" s="29"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
-      <c r="F39" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="92"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="F39" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="167"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="28"/>
       <c r="L39" s="29"/>
     </row>
-    <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="F40" s="169"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
       <c r="K40" s="28"/>
       <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
@@ -8715,7 +9070,7 @@
       <c r="K41" s="28"/>
       <c r="L41" s="29"/>
     </row>
-    <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
@@ -8728,8 +9083,24 @@
       <c r="K42" s="31"/>
       <c r="L42" s="32"/>
     </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F43" s="172" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="173"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N45" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F43:G44"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="G36:K36"/>
@@ -8748,12 +9119,319 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93C093-DD72-4F89-AE0B-CB5B380F4DB3}">
+  <dimension ref="B2:O48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D12" s="154" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="155"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="174"/>
+      <c r="O14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D30" s="154" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="155"/>
+    </row>
+    <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B32" s="33"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="27"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="38"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="27"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+    </row>
+    <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="27"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="161" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="29"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="27"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+    </row>
+    <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="27"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="161"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="27"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
+    </row>
+    <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="163"/>
+      <c r="L40" s="29"/>
+    </row>
+    <row r="41" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="27"/>
+      <c r="C41" s="131" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="132"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="27"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="2:12" ht="35.4" x14ac:dyDescent="0.45">
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="167"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="2:12" ht="36" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
+    </row>
+    <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="F45:H46"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="C34:D39"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G38:K38"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264B5B65-8687-4561-9465-8EEAC7A77FBF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:AY60"/>
+  <dimension ref="C1:AW60"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="AE16" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8765,23 +9443,21 @@
     <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.296875" customWidth="1"/>
-    <col min="33" max="33" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:49" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C2" s="33"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -8791,22 +9467,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="26"/>
+      <c r="AH2" s="28"/>
       <c r="AI2" s="28"/>
       <c r="AJ2" s="28"/>
       <c r="AK2" s="28"/>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
       <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
+      <c r="AR2" s="28"/>
       <c r="AS2" s="28"/>
       <c r="AT2" s="28"/>
       <c r="AU2" s="28"/>
       <c r="AV2" s="28"/>
       <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-    </row>
-    <row r="3" spans="3:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="3:49" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -8816,22 +9491,21 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
+      <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
+      <c r="AR3" s="28"/>
       <c r="AS3" s="28"/>
       <c r="AT3" s="28"/>
       <c r="AU3" s="28"/>
       <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-    </row>
-    <row r="4" spans="3:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="3:49" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="27"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -8843,29 +9517,28 @@
       <c r="I4" s="36"/>
       <c r="J4" s="35"/>
       <c r="K4" s="29"/>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>
       <c r="AJ4" s="28"/>
       <c r="AK4" s="28"/>
       <c r="AL4" s="28"/>
       <c r="AM4" s="28"/>
       <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
+      <c r="AR4" s="28"/>
       <c r="AS4" s="28"/>
       <c r="AT4" s="28"/>
       <c r="AU4" s="28"/>
       <c r="AV4" s="28"/>
       <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-    </row>
-    <row r="5" spans="3:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="3:49" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -8878,22 +9551,21 @@
       <c r="AA5" t="s">
         <v>150</v>
       </c>
+      <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
       <c r="AK5" s="28"/>
       <c r="AL5" s="28"/>
       <c r="AM5" s="28"/>
       <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
+      <c r="AR5" s="28"/>
       <c r="AS5" s="28"/>
       <c r="AT5" s="28"/>
       <c r="AU5" s="28"/>
       <c r="AV5" s="28"/>
       <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-    </row>
-    <row r="6" spans="3:51" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="3:49" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="27"/>
       <c r="D6" s="44" t="s">
         <v>36</v>
@@ -8920,42 +9592,39 @@
       <c r="AA6" t="s">
         <v>151</v>
       </c>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="154" t="s">
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="58" t="s">
         <v>251</v>
       </c>
+      <c r="AJ6" s="44" t="s">
+        <v>166</v>
+      </c>
       <c r="AK6" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM6" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AL6" s="44" t="s">
+      <c r="AT6" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AM6" s="44" t="s">
+      <c r="AU6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AN6" s="44" t="s">
+      <c r="AV6" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AO6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="154" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU6" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV6" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW6" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX6" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY6" s="28"/>
-    </row>
-    <row r="7" spans="3:51" x14ac:dyDescent="0.45">
+      <c r="AW6" s="28"/>
+    </row>
+    <row r="7" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C7" s="27"/>
       <c r="D7" s="50" t="s">
         <v>57</v>
@@ -8975,42 +9644,39 @@
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="29"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="51" t="s">
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AK7" s="39" t="s">
+      <c r="AJ7" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="AL7" s="39">
+      <c r="AK7" s="39">
         <v>10</v>
       </c>
+      <c r="AL7" s="40">
+        <v>40643</v>
+      </c>
       <c r="AM7" s="40">
+        <v>44671</v>
+      </c>
+      <c r="AN7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT7" s="39">
+        <v>10</v>
+      </c>
+      <c r="AU7" s="40">
         <v>40643</v>
       </c>
-      <c r="AN7" s="40">
+      <c r="AV7" s="40">
         <v>44671</v>
       </c>
-      <c r="AO7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU7" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV7" s="39">
-        <v>10</v>
-      </c>
-      <c r="AW7" s="40">
-        <v>40643</v>
-      </c>
-      <c r="AX7" s="40">
-        <v>44671</v>
-      </c>
-      <c r="AY7" s="28"/>
-    </row>
-    <row r="8" spans="3:51" x14ac:dyDescent="0.45">
+      <c r="AW7" s="28"/>
+    </row>
+    <row r="8" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C8" s="27"/>
       <c r="D8" s="41" t="s">
         <v>67</v>
@@ -9032,42 +9698,39 @@
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="29"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="51" t="s">
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AK8" s="41" t="s">
+      <c r="AJ8" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="AL8" s="41">
+      <c r="AK8" s="41">
         <v>15</v>
       </c>
+      <c r="AL8" s="42">
+        <v>40643</v>
+      </c>
       <c r="AM8" s="42">
+        <v>44682</v>
+      </c>
+      <c r="AN8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT8" s="41">
+        <v>15</v>
+      </c>
+      <c r="AU8" s="42">
         <v>40643</v>
       </c>
-      <c r="AN8" s="42">
+      <c r="AV8" s="42">
         <v>44682</v>
       </c>
-      <c r="AO8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU8" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV8" s="41">
-        <v>15</v>
-      </c>
-      <c r="AW8" s="42">
-        <v>40643</v>
-      </c>
-      <c r="AX8" s="42">
-        <v>44682</v>
-      </c>
-      <c r="AY8" s="28"/>
-    </row>
-    <row r="9" spans="3:51" x14ac:dyDescent="0.45">
+      <c r="AW8" s="28"/>
+    </row>
+    <row r="9" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C9" s="27"/>
       <c r="D9" s="41" t="s">
         <v>64</v>
@@ -9087,42 +9750,39 @@
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="29"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="51" t="s">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AK9" s="41" t="s">
+      <c r="AJ9" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="AL9" s="41">
+      <c r="AK9" s="41">
         <v>3</v>
       </c>
+      <c r="AL9" s="42">
+        <v>41572</v>
+      </c>
       <c r="AM9" s="42">
+        <v>41945</v>
+      </c>
+      <c r="AN9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT9" s="41">
+        <v>3</v>
+      </c>
+      <c r="AU9" s="42">
         <v>41572</v>
       </c>
-      <c r="AN9" s="42">
+      <c r="AV9" s="42">
         <v>41945</v>
       </c>
-      <c r="AO9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU9" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV9" s="41">
-        <v>3</v>
-      </c>
-      <c r="AW9" s="42">
-        <v>41572</v>
-      </c>
-      <c r="AX9" s="42">
-        <v>41945</v>
-      </c>
-      <c r="AY9" s="28"/>
-    </row>
-    <row r="10" spans="3:51" x14ac:dyDescent="0.45">
+      <c r="AW9" s="28"/>
+    </row>
+    <row r="10" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C10" s="27"/>
       <c r="D10" s="41" t="s">
         <v>70</v>
@@ -9144,42 +9804,39 @@
         <v>45044</v>
       </c>
       <c r="K10" s="29"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="51" t="s">
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AK10" s="41" t="s">
+      <c r="AJ10" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AL10" s="41">
+      <c r="AK10" s="41">
         <v>6</v>
       </c>
+      <c r="AL10" s="42">
+        <v>42100</v>
+      </c>
       <c r="AM10" s="42">
+        <v>42470</v>
+      </c>
+      <c r="AN10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT10" s="41">
+        <v>6</v>
+      </c>
+      <c r="AU10" s="42">
         <v>42100</v>
       </c>
-      <c r="AN10" s="42">
+      <c r="AV10" s="42">
         <v>42470</v>
       </c>
-      <c r="AO10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU10" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV10" s="41">
-        <v>6</v>
-      </c>
-      <c r="AW10" s="42">
-        <v>42100</v>
-      </c>
-      <c r="AX10" s="42">
-        <v>42470</v>
-      </c>
-      <c r="AY10" s="28"/>
-    </row>
-    <row r="11" spans="3:51" x14ac:dyDescent="0.45">
+      <c r="AW10" s="28"/>
+    </row>
+    <row r="11" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C11" s="27"/>
       <c r="D11" s="41" t="s">
         <v>72</v>
@@ -9201,38 +9858,35 @@
         <v>41393</v>
       </c>
       <c r="K11" s="29"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="51" t="s">
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AK11" s="41" t="s">
+      <c r="AJ11" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="AL11" s="41">
+      <c r="AK11" s="41">
         <v>2</v>
       </c>
-      <c r="AM11" s="42">
+      <c r="AL11" s="42">
         <v>45054</v>
       </c>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU11" s="41" t="s">
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="AV11" s="41">
+      <c r="AT11" s="41">
         <v>2</v>
       </c>
-      <c r="AW11" s="42">
+      <c r="AU11" s="42">
         <v>45054</v>
       </c>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="28"/>
-    </row>
-    <row r="12" spans="3:51" x14ac:dyDescent="0.45">
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="28"/>
+    </row>
+    <row r="12" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C12" s="27"/>
       <c r="D12" s="41" t="s">
         <v>55</v>
@@ -9252,22 +9906,21 @@
       </c>
       <c r="J12" s="42"/>
       <c r="K12" s="29"/>
+      <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="28"/>
       <c r="AK12" s="28"/>
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
       <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
+      <c r="AR12" s="28"/>
       <c r="AS12" s="28"/>
       <c r="AT12" s="28"/>
       <c r="AU12" s="28"/>
       <c r="AV12" s="28"/>
       <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-    </row>
-    <row r="13" spans="3:51" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C13" s="27"/>
       <c r="D13" s="41" t="s">
         <v>76</v>
@@ -9288,7 +9941,7 @@
       <c r="J13" s="42"/>
       <c r="K13" s="29"/>
     </row>
-    <row r="14" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C14" s="27"/>
       <c r="D14" s="41" t="s">
         <v>79</v>
@@ -9309,7 +9962,7 @@
       <c r="J14" s="42"/>
       <c r="K14" s="29"/>
     </row>
-    <row r="15" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C15" s="27"/>
       <c r="D15" s="41" t="s">
         <v>82</v>
@@ -9332,7 +9985,7 @@
       <c r="J15" s="42"/>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="3:51" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:49" x14ac:dyDescent="0.45">
       <c r="C16" s="27" t="s">
         <v>4</v>
       </c>
@@ -9359,7 +10012,7 @@
       </c>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="3:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C17" s="27"/>
       <c r="D17" s="41" t="s">
         <v>105</v>
@@ -9382,7 +10035,7 @@
       <c r="J17" s="42"/>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="3:42" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C18" s="27"/>
       <c r="D18" s="41" t="s">
         <v>87</v>
@@ -9403,7 +10056,7 @@
       <c r="J18" s="42"/>
       <c r="K18" s="29"/>
     </row>
-    <row r="19" spans="3:42" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C19" s="27"/>
       <c r="D19" s="41" t="s">
         <v>87</v>
@@ -9424,7 +10077,7 @@
       <c r="J19" s="42"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="3:42" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C20" s="27"/>
       <c r="D20" s="41" t="s">
         <v>90</v>
@@ -9445,7 +10098,7 @@
       <c r="J20" s="42"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="27"/>
       <c r="D21" s="41" t="s">
         <v>92</v>
@@ -9468,7 +10121,7 @@
       <c r="J21" s="42"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="3:42" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C22" s="27"/>
       <c r="D22" s="41" t="s">
         <v>95</v>
@@ -9499,10 +10152,9 @@
       <c r="AL22" s="25"/>
       <c r="AM22" s="25"/>
       <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="26"/>
-    </row>
-    <row r="23" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AO22" s="26"/>
+    </row>
+    <row r="23" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="27"/>
       <c r="D23" s="41" t="s">
         <v>109</v>
@@ -9533,10 +10185,9 @@
       <c r="AL23" s="28"/>
       <c r="AM23" s="28"/>
       <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="29"/>
-    </row>
-    <row r="24" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AO23" s="29"/>
+    </row>
+    <row r="24" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="27"/>
       <c r="D24" s="41" t="s">
         <v>97</v>
@@ -9563,16 +10214,15 @@
       <c r="AH24" s="28"/>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="43" t="s">
+      <c r="AK24" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="29"/>
-    </row>
-    <row r="25" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="29"/>
+    </row>
+    <row r="25" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="27"/>
       <c r="D25" s="41" t="s">
         <v>99</v>
@@ -9603,10 +10253,9 @@
       <c r="AL25" s="28"/>
       <c r="AM25" s="28"/>
       <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="29"/>
-    </row>
-    <row r="26" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AO25" s="29"/>
+    </row>
+    <row r="26" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="27"/>
       <c r="D26" s="41" t="s">
         <v>100</v>
@@ -9628,38 +10277,35 @@
       </c>
       <c r="J26" s="42"/>
       <c r="K26" s="29"/>
-      <c r="U26" s="126" t="s">
+      <c r="U26" s="164" t="s">
         <v>142</v>
       </c>
       <c r="AF26" s="27"/>
-      <c r="AG26" s="154" t="s">
-        <v>251</v>
+      <c r="AG26" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="AH26" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI26" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AJ26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44" t="s">
+        <v>38</v>
+      </c>
       <c r="AK26" s="44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AL26" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AM26" s="44" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AN26" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO26" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AP26" s="29"/>
-    </row>
-    <row r="27" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AO26" s="29"/>
+    </row>
+    <row r="27" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C27" s="27"/>
       <c r="D27" s="41" t="s">
         <v>101</v>
@@ -9681,32 +10327,29 @@
       </c>
       <c r="J27" s="42"/>
       <c r="K27" s="29"/>
-      <c r="U27" s="126"/>
+      <c r="U27" s="164"/>
       <c r="AF27" s="27"/>
-      <c r="AG27" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH27" s="50" t="s">
+      <c r="AG27" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AI27" s="39" t="s">
+      <c r="AH27" s="39" t="s">
         <v>54</v>
       </c>
+      <c r="AI27" s="39"/>
       <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
+      <c r="AK27" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="AL27" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM27" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AN27" s="40">
+      <c r="AM27" s="40">
         <v>40643</v>
       </c>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="29"/>
-    </row>
-    <row r="28" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="29"/>
+    </row>
+    <row r="28" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C28" s="27"/>
       <c r="D28" s="41" t="s">
         <v>112</v>
@@ -9730,30 +10373,27 @@
         <v>152</v>
       </c>
       <c r="AF28" s="27"/>
-      <c r="AG28" s="51" t="s">
-        <v>149</v>
+      <c r="AG28" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="AH28" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI28" s="41" t="s">
         <v>65</v>
       </c>
+      <c r="AI28" s="41"/>
       <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
+      <c r="AK28" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="AL28" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM28" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AN28" s="42">
+      <c r="AM28" s="42">
         <v>41031</v>
       </c>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="29"/>
-    </row>
-    <row r="29" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="29"/>
+    </row>
+    <row r="29" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C29" s="27"/>
       <c r="D29" s="41" t="s">
         <v>114</v>
@@ -9774,32 +10414,29 @@
       <c r="J29" s="42"/>
       <c r="K29" s="29"/>
       <c r="AF29" s="27"/>
-      <c r="AG29" s="51" t="s">
-        <v>149</v>
+      <c r="AG29" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="AH29" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI29" s="41" t="s">
         <v>73</v>
       </c>
+      <c r="AI29" s="41"/>
       <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
+      <c r="AK29" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="AL29" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM29" s="41" t="s">
         <v>74</v>
       </c>
+      <c r="AM29" s="42">
+        <v>41367</v>
+      </c>
       <c r="AN29" s="42">
-        <v>41367</v>
-      </c>
-      <c r="AO29" s="42">
         <v>41393</v>
       </c>
-      <c r="AP29" s="29"/>
-    </row>
-    <row r="30" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AO29" s="29"/>
+    </row>
+    <row r="30" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C30" s="27"/>
       <c r="D30" s="41" t="s">
         <v>115</v>
@@ -9820,30 +10457,27 @@
       <c r="J30" s="42"/>
       <c r="K30" s="29"/>
       <c r="AF30" s="27"/>
-      <c r="AG30" s="51" t="s">
-        <v>149</v>
+      <c r="AG30" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="AH30" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI30" s="41" t="s">
         <v>80</v>
       </c>
+      <c r="AI30" s="41"/>
       <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
+      <c r="AK30" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="AL30" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM30" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AN30" s="42">
+      <c r="AM30" s="42">
         <v>41734</v>
       </c>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="29"/>
-    </row>
-    <row r="31" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="29"/>
+    </row>
+    <row r="31" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C31" s="27"/>
       <c r="D31" s="41" t="s">
         <v>117</v>
@@ -9866,32 +10500,29 @@
       <c r="J31" s="42"/>
       <c r="K31" s="29"/>
       <c r="AF31" s="27"/>
-      <c r="AG31" s="51" t="s">
-        <v>149</v>
+      <c r="AG31" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="AH31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI31" s="41" t="s">
         <v>73</v>
       </c>
+      <c r="AI31" s="41"/>
       <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
+      <c r="AK31" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="AL31" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM31" s="41" t="s">
         <v>74</v>
       </c>
+      <c r="AM31" s="42">
+        <v>41367</v>
+      </c>
       <c r="AN31" s="42">
-        <v>41367</v>
-      </c>
-      <c r="AO31" s="42">
         <v>41393</v>
       </c>
-      <c r="AP31" s="29"/>
-    </row>
-    <row r="32" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AO31" s="29"/>
+    </row>
+    <row r="32" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C32" s="27"/>
       <c r="D32" s="41" t="s">
         <v>119</v>
@@ -9912,30 +10543,27 @@
       <c r="J32" s="42"/>
       <c r="K32" s="29"/>
       <c r="AF32" s="27"/>
-      <c r="AG32" s="51" t="s">
-        <v>149</v>
+      <c r="AG32" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="AH32" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI32" s="41" t="s">
         <v>91</v>
       </c>
+      <c r="AI32" s="41"/>
       <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
+      <c r="AK32" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="AL32" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM32" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="AN32" s="42">
+      <c r="AM32" s="42">
         <v>42098</v>
       </c>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="29"/>
-    </row>
-    <row r="33" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="29"/>
+    </row>
+    <row r="33" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C33" s="27"/>
       <c r="D33" s="41" t="s">
         <v>125</v>
@@ -9956,30 +10584,27 @@
       <c r="J33" s="42"/>
       <c r="K33" s="29"/>
       <c r="AF33" s="27"/>
-      <c r="AG33" s="51" t="s">
-        <v>149</v>
+      <c r="AG33" s="41" t="s">
+        <v>112</v>
       </c>
       <c r="AH33" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI33" s="41" t="s">
         <v>113</v>
       </c>
+      <c r="AI33" s="41"/>
       <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
+      <c r="AK33" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="AL33" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM33" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="AN33" s="42">
+      <c r="AM33" s="42">
         <v>42838</v>
       </c>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="29"/>
-    </row>
-    <row r="34" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="29"/>
+    </row>
+    <row r="34" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C34" s="27"/>
       <c r="D34" s="41" t="s">
         <v>127</v>
@@ -10000,30 +10625,27 @@
       <c r="J34" s="42"/>
       <c r="K34" s="29"/>
       <c r="AF34" s="27"/>
-      <c r="AG34" s="51" t="s">
-        <v>149</v>
+      <c r="AG34" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="AH34" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI34" s="41" t="s">
         <v>80</v>
       </c>
+      <c r="AI34" s="41"/>
       <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
+      <c r="AK34" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="AL34" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM34" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AN34" s="42">
+      <c r="AM34" s="42">
         <v>41734</v>
       </c>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="29"/>
-    </row>
-    <row r="35" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="29"/>
+    </row>
+    <row r="35" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C35" s="27"/>
       <c r="D35" s="41" t="s">
         <v>129</v>
@@ -10046,30 +10668,27 @@
       <c r="J35" s="42"/>
       <c r="K35" s="29"/>
       <c r="AF35" s="27"/>
-      <c r="AG35" s="51" t="s">
-        <v>149</v>
+      <c r="AG35" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="AH35" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI35" s="41" t="s">
         <v>116</v>
       </c>
+      <c r="AI35" s="41"/>
       <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
+      <c r="AK35" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="AL35" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM35" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="AN35" s="42">
+      <c r="AM35" s="42">
         <v>43212</v>
       </c>
-      <c r="AO35" s="42"/>
-      <c r="AP35" s="29"/>
-    </row>
-    <row r="36" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN35" s="42"/>
+      <c r="AO35" s="29"/>
+    </row>
+    <row r="36" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C36" s="27"/>
       <c r="D36" s="41" t="s">
         <v>132</v>
@@ -10090,30 +10709,27 @@
       <c r="J36" s="42"/>
       <c r="K36" s="29"/>
       <c r="AF36" s="27"/>
-      <c r="AG36" s="51" t="s">
-        <v>149</v>
+      <c r="AG36" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="AH36" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI36" s="41" t="s">
         <v>120</v>
       </c>
+      <c r="AI36" s="41"/>
       <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
+      <c r="AK36" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="AL36" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM36" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="AN36" s="42">
+      <c r="AM36" s="42">
         <v>43556</v>
       </c>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="29"/>
-    </row>
-    <row r="37" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="29"/>
+    </row>
+    <row r="37" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C37" s="27"/>
       <c r="D37" s="41" t="s">
         <v>137</v>
@@ -10136,30 +10752,27 @@
       <c r="J37" s="42"/>
       <c r="K37" s="29"/>
       <c r="AF37" s="27"/>
-      <c r="AG37" s="51" t="s">
-        <v>149</v>
+      <c r="AG37" s="41" t="s">
+        <v>127</v>
       </c>
       <c r="AH37" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI37" s="41" t="s">
         <v>128</v>
       </c>
+      <c r="AI37" s="41"/>
       <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
+      <c r="AK37" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="AL37" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM37" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="AN37" s="42">
+      <c r="AM37" s="42">
         <v>44275</v>
       </c>
-      <c r="AO37" s="42"/>
-      <c r="AP37" s="29"/>
-    </row>
-    <row r="38" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="29"/>
+    </row>
+    <row r="38" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -10178,10 +10791,9 @@
       <c r="AL38" s="28"/>
       <c r="AM38" s="28"/>
       <c r="AN38" s="28"/>
-      <c r="AO38" s="28"/>
-      <c r="AP38" s="29"/>
-    </row>
-    <row r="39" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AO38" s="29"/>
+    </row>
+    <row r="39" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C39" s="30"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -10200,11 +10812,10 @@
       <c r="AL39" s="31"/>
       <c r="AM39" s="31"/>
       <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="32"/>
-    </row>
-    <row r="42" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="43" spans="3:42" x14ac:dyDescent="0.45">
+      <c r="AO39" s="32"/>
+    </row>
+    <row r="42" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="43" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C43" s="33"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -10215,7 +10826,7 @@
       <c r="J43" s="25"/>
       <c r="K43" s="26"/>
     </row>
-    <row r="44" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
@@ -10226,7 +10837,7 @@
       <c r="J44" s="28"/>
       <c r="K44" s="29"/>
     </row>
-    <row r="45" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C45" s="27"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
@@ -10239,7 +10850,7 @@
       <c r="J45" s="35"/>
       <c r="K45" s="29"/>
     </row>
-    <row r="46" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
@@ -10250,7 +10861,7 @@
       <c r="J46" s="28"/>
       <c r="K46" s="29"/>
     </row>
-    <row r="47" spans="3:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C47" s="27"/>
       <c r="D47" s="44" t="s">
         <v>36</v>
@@ -10275,7 +10886,7 @@
       </c>
       <c r="K47" s="29"/>
     </row>
-    <row r="48" spans="3:42" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C48" s="27"/>
       <c r="D48" s="50" t="s">
         <v>57</v>
@@ -10316,7 +10927,7 @@
       </c>
       <c r="J49" s="42"/>
       <c r="K49" s="29"/>
-      <c r="U49" s="126" t="s">
+      <c r="U49" s="164" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10342,7 +10953,7 @@
         <v>41393</v>
       </c>
       <c r="K50" s="29"/>
-      <c r="U50" s="126"/>
+      <c r="U50" s="164"/>
     </row>
     <row r="51" spans="3:21" x14ac:dyDescent="0.45">
       <c r="C51" s="27"/>
@@ -10558,108 +11169,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="151" customWidth="1"/>
-    <col min="2" max="2" width="43.09765625" style="151" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="151" customWidth="1"/>
-    <col min="4" max="4" width="50.19921875" style="151" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="151"/>
+    <col min="1" max="1" width="12.8984375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="43.09765625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="50.19921875" style="55" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="55"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="56" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="56" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="56" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="56" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="56" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="56" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10679,108 +11290,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="151" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" style="151" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="151" customWidth="1"/>
-    <col min="4" max="4" width="50.19921875" style="151" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="151"/>
+    <col min="1" max="1" width="12.8984375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="50.19921875" style="55" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="55"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="56" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="56" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="56" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="56" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="56" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="56" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="56" t="s">
         <v>245</v>
       </c>
     </row>
@@ -10809,10 +11420,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="102"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="10"/>
@@ -10839,10 +11450,10 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
       <c r="J6" s="14"/>
       <c r="L6" t="s">
         <v>8</v>
@@ -10867,10 +11478,10 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
       <c r="J9" s="14"/>
       <c r="L9" t="s">
         <v>13</v>
@@ -10889,10 +11500,10 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.45">
@@ -10912,10 +11523,10 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="99"/>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="3:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10929,10 +11540,10 @@
       <c r="J17" s="17"/>
     </row>
     <row r="21" spans="3:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="102"/>
     </row>
     <row r="22" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C22" s="10"/>
@@ -10983,72 +11594,72 @@
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="97"/>
       <c r="J24" s="14"/>
       <c r="K24" s="9"/>
       <c r="L24" s="13"/>
       <c r="M24" t="s">
         <v>2</v>
       </c>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="69"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
       <c r="S24" s="14"/>
       <c r="U24" s="13"/>
       <c r="V24" t="s">
         <v>2</v>
       </c>
-      <c r="W24" s="67"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="69"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="97"/>
       <c r="AB24" s="14"/>
       <c r="AD24" s="13"/>
       <c r="AE24" t="s">
         <v>2</v>
       </c>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="68"/>
-      <c r="AI24" s="69"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="96"/>
+      <c r="AI24" s="97"/>
       <c r="AK24" s="14"/>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C25" s="13"/>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
       <c r="J25" s="14"/>
       <c r="L25" s="13"/>
-      <c r="N25" s="66" t="s">
+      <c r="N25" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
       <c r="S25" s="14"/>
       <c r="U25" s="13"/>
-      <c r="W25" s="66" t="s">
+      <c r="W25" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
       <c r="AB25" s="14"/>
       <c r="AD25" s="13"/>
-      <c r="AF25" s="66" t="s">
+      <c r="AF25" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
+      <c r="AG25" s="94"/>
+      <c r="AH25" s="94"/>
+      <c r="AI25" s="94"/>
       <c r="AK25" s="14"/>
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.45">
@@ -11057,12 +11668,12 @@
       <c r="L26" s="13"/>
       <c r="S26" s="14"/>
       <c r="U26" s="13"/>
-      <c r="W26" s="73" t="s">
+      <c r="W26" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
       <c r="AB26" s="14"/>
       <c r="AD26" s="13"/>
       <c r="AK26" s="14"/>
@@ -11072,37 +11683,37 @@
       <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="97"/>
       <c r="J27" s="14"/>
       <c r="L27" s="13"/>
       <c r="M27" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
       <c r="S27" s="14"/>
       <c r="U27" s="13"/>
       <c r="V27" t="s">
         <v>3</v>
       </c>
-      <c r="W27" s="67"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="69"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="97"/>
       <c r="AB27" s="14"/>
       <c r="AD27" s="13"/>
       <c r="AE27" t="s">
         <v>3</v>
       </c>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="69"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="97"/>
       <c r="AK27" s="14"/>
     </row>
     <row r="28" spans="3:37" x14ac:dyDescent="0.45">
@@ -11139,37 +11750,37 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
       <c r="J30" s="14"/>
       <c r="L30" s="13"/>
       <c r="M30" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="67"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="69"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
       <c r="S30" s="14"/>
       <c r="U30" s="13"/>
       <c r="V30" t="s">
         <v>10</v>
       </c>
-      <c r="W30" s="67"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="69"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="97"/>
       <c r="AB30" s="14"/>
       <c r="AD30" s="13"/>
       <c r="AE30" t="s">
         <v>10</v>
       </c>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="69"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+      <c r="AI30" s="97"/>
       <c r="AK30" s="14"/>
     </row>
     <row r="31" spans="3:37" x14ac:dyDescent="0.45">
@@ -11207,37 +11818,37 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="99"/>
       <c r="J34" s="14"/>
       <c r="L34" s="13"/>
       <c r="M34" t="s">
         <v>4</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="71"/>
+      <c r="O34" s="99"/>
       <c r="S34" s="14"/>
       <c r="U34" s="13"/>
       <c r="V34" t="s">
         <v>4</v>
       </c>
-      <c r="W34" s="70" t="s">
+      <c r="W34" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="X34" s="71"/>
+      <c r="X34" s="99"/>
       <c r="AB34" s="14"/>
       <c r="AD34" s="13"/>
       <c r="AE34" t="s">
         <v>4</v>
       </c>
-      <c r="AF34" s="70" t="s">
+      <c r="AF34" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="AG34" s="71"/>
+      <c r="AG34" s="99"/>
       <c r="AK34" s="14"/>
     </row>
     <row r="35" spans="3:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11275,10 +11886,10 @@
       <c r="AK35" s="17"/>
     </row>
     <row r="39" spans="3:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="102"/>
     </row>
     <row r="40" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C40" s="10"/>
@@ -11411,12 +12022,12 @@
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
       <c r="L46" s="13"/>
-      <c r="N46" s="76" t="s">
+      <c r="N46" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
       <c r="U46" s="13"/>
@@ -11441,12 +12052,12 @@
         <v>15</v>
       </c>
       <c r="U47" s="13"/>
-      <c r="W47" s="77" t="s">
+      <c r="W47" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="X47" s="77"/>
-      <c r="Y47" s="77"/>
-      <c r="Z47" s="77"/>
+      <c r="X47" s="105"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="105"/>
       <c r="AB47" s="14"/>
     </row>
     <row r="48" spans="3:37" x14ac:dyDescent="0.45">
@@ -11507,28 +12118,28 @@
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="72"/>
+      <c r="F52" s="100"/>
       <c r="J52" s="14"/>
       <c r="L52" s="13"/>
       <c r="M52" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="70" t="s">
+      <c r="N52" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="72"/>
+      <c r="O52" s="100"/>
       <c r="S52" s="14"/>
       <c r="U52" s="13"/>
       <c r="V52" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="70" t="s">
+      <c r="W52" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="72"/>
+      <c r="X52" s="100"/>
       <c r="AB52" s="14"/>
     </row>
     <row r="53" spans="3:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11558,10 +12169,10 @@
       <c r="AB53" s="17"/>
     </row>
     <row r="57" spans="3:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="74"/>
+      <c r="D57" s="102"/>
     </row>
     <row r="58" spans="3:28" x14ac:dyDescent="0.45">
       <c r="C58" s="10"/>
@@ -11582,10 +12193,10 @@
       <c r="D60" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="67"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="69"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="97"/>
       <c r="J60" s="14"/>
     </row>
     <row r="61" spans="3:28" x14ac:dyDescent="0.45">
@@ -11601,10 +12212,10 @@
       <c r="D63" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="67"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="69"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="97"/>
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="3:28" x14ac:dyDescent="0.45">
@@ -11620,20 +12231,20 @@
       <c r="D66" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="69"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="97"/>
       <c r="J66" s="14"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C67" s="13"/>
-      <c r="E67" s="75" t="s">
+      <c r="E67" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
       <c r="J67" s="14"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.45">
@@ -11649,10 +12260,10 @@
       <c r="D70" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="70" t="s">
+      <c r="E70" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="71"/>
+      <c r="F70" s="99"/>
       <c r="J70" s="14"/>
     </row>
     <row r="71" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11727,10 +12338,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="102"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" s="10"/>
@@ -11758,10 +12369,10 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
       <c r="K6" s="14"/>
       <c r="M6" t="s">
         <v>28</v>
@@ -11783,10 +12394,10 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.45">
@@ -11799,12 +12410,12 @@
     </row>
     <row r="12" spans="3:13" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="13"/>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="71"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="99"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="3:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11819,10 +12430,10 @@
       <c r="K13" s="17"/>
     </row>
     <row r="16" spans="3:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C17" s="10"/>
@@ -11844,10 +12455,10 @@
       <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.45">
@@ -11863,20 +12474,20 @@
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C23" s="13"/>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11885,12 +12496,12 @@
     </row>
     <row r="25" spans="3:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="13"/>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="71"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="99"/>
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11926,17 +12537,17 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C3:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="102"/>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C4" s="9"/>
@@ -11956,13 +12567,13 @@
     <row r="5" spans="3:14" x14ac:dyDescent="0.45">
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="N5" t="s">
@@ -11972,11 +12583,11 @@
     <row r="6" spans="3:14" x14ac:dyDescent="0.45">
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="N6" t="s">
@@ -12012,11 +12623,11 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
@@ -12025,9 +12636,9 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -12058,11 +12669,11 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -12071,9 +12682,9 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -12104,11 +12715,11 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
@@ -12117,9 +12728,9 @@
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
@@ -12150,11 +12761,11 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -12163,9 +12774,9 @@
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="113"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
@@ -12210,10 +12821,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="102"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C4" s="33"/>
@@ -12249,17 +12860,17 @@
     </row>
     <row r="6" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="27"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="38" t="s">
         <v>51</v>
       </c>
@@ -12269,8 +12880,8 @@
     </row>
     <row r="7" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="27"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="37"/>
@@ -12285,17 +12896,17 @@
     </row>
     <row r="8" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="27"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="29"/>
       <c r="O8" t="s">
         <v>46</v>
@@ -12303,8 +12914,8 @@
     </row>
     <row r="9" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="27"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -12319,17 +12930,17 @@
     </row>
     <row r="10" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="27"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="29"/>
       <c r="O10" t="s">
         <v>48</v>
@@ -12337,8 +12948,8 @@
     </row>
     <row r="11" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="27"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -12359,11 +12970,11 @@
       <c r="G12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="117"/>
       <c r="M12" s="29"/>
       <c r="O12" t="s">
         <v>50</v>
@@ -12371,10 +12982,10 @@
     </row>
     <row r="13" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="27"/>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -12386,19 +12997,19 @@
     </row>
     <row r="14" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="27"/>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="117"/>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.45">
@@ -12432,11 +13043,11 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="91" t="s">
+      <c r="G17" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
@@ -12447,9 +13058,9 @@
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
@@ -12512,10 +13123,10 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="102"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="33"/>
@@ -12544,11 +13155,11 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="28"/>
       <c r="H6" s="29"/>
       <c r="J6" t="s">
@@ -12558,9 +13169,9 @@
     <row r="7" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
     </row>
@@ -12585,20 +13196,20 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="28"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="28"/>
       <c r="H11" s="29"/>
     </row>
@@ -12623,20 +13234,20 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
     </row>
@@ -12678,22 +13289,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006FAE7B-6C49-4800-9DF1-B2929BF52458}">
   <dimension ref="B23:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="143" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="I24" s="115"/>
+      <c r="I24" s="143"/>
     </row>
     <row r="25" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I25" s="120"/>
+      <c r="I25" s="148"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="33"/>
@@ -12746,14 +13357,14 @@
         <v>36</v>
       </c>
       <c r="D29" s="46"/>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="113"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
       <c r="K29" s="47" t="s">
         <v>51</v>
       </c>
@@ -12778,14 +13389,14 @@
         <v>37</v>
       </c>
       <c r="D31" s="46"/>
-      <c r="E31" s="123" t="s">
+      <c r="E31" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
       <c r="K31" s="46"/>
       <c r="L31" s="29"/>
     </row>
@@ -12808,12 +13419,12 @@
         <v>38</v>
       </c>
       <c r="D33" s="46"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="113"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
       <c r="K33" s="46"/>
       <c r="L33" s="29"/>
     </row>
@@ -12836,21 +13447,21 @@
         <v>41</v>
       </c>
       <c r="D35" s="28"/>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="141"/>
       <c r="K35" s="46"/>
       <c r="L35" s="29"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="27"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
@@ -12866,14 +13477,14 @@
         <v>39</v>
       </c>
       <c r="D37" s="45"/>
-      <c r="E37" s="111" t="s">
+      <c r="E37" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="113"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="141"/>
       <c r="K37" s="46"/>
       <c r="L37" s="29"/>
     </row>
@@ -12907,15 +13518,15 @@
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="117"/>
+      <c r="F40" s="145"/>
       <c r="G40" s="48"/>
-      <c r="H40" s="116" t="s">
+      <c r="H40" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="I40" s="117"/>
+      <c r="I40" s="145"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="29"/>
@@ -12924,11 +13535,11 @@
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="119"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="147"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="147"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="29"/>
@@ -12960,15 +13571,15 @@
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="I44" s="114" t="s">
+      <c r="I44" s="142" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="I45" s="115"/>
+      <c r="I45" s="143"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="I46" s="115"/>
+      <c r="I46" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="10">
